--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -32,19 +32,28 @@
     <t>Lokasi/rak</t>
   </si>
   <si>
-    <t>samsung s23</t>
+    <t>Mouse</t>
   </si>
   <si>
     <t>Pcs</t>
   </si>
   <si>
-    <t>rak 3</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>rak 7</t>
+    <t>sampingg</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>samping</t>
   </si>
 </sst>
 </file>
@@ -410,10 +419,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,7 +453,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -453,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>1031</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -461,7 +470,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -470,10 +479,27 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -32,28 +32,19 @@
     <t>Lokasi/rak</t>
   </si>
   <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Pcs</t>
+  </si>
+  <si>
+    <t>Samping  2</t>
+  </si>
+  <si>
     <t>Mouse</t>
   </si>
   <si>
-    <t>Pcs</t>
-  </si>
-  <si>
     <t>sampingg</t>
-  </si>
-  <si>
-    <t>dsad</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>keyboard</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>samping</t>
   </si>
 </sst>
 </file>
@@ -419,10 +410,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,7 +444,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -462,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>1031</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -470,7 +461,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -479,27 +470,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
